--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H2">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I2">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J2">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>1.620460768987667</v>
+        <v>0.5952664740246667</v>
       </c>
       <c r="R2">
-        <v>14.584146920889</v>
+        <v>5.357398266222</v>
       </c>
       <c r="S2">
-        <v>0.2423504274628385</v>
+        <v>0.128751964343274</v>
       </c>
       <c r="T2">
-        <v>0.2834741775140044</v>
+        <v>0.1414263417267168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H3">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I3">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J3">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.214800573169</v>
+        <v>0.197140332399</v>
       </c>
       <c r="R3">
-        <v>1.933205158521</v>
+        <v>1.774262991591</v>
       </c>
       <c r="S3">
-        <v>0.03212482012711168</v>
+        <v>0.0426400715566008</v>
       </c>
       <c r="T3">
-        <v>0.03757598886312961</v>
+        <v>0.04683757146521941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H4">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I4">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J4">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.4893944752666666</v>
+        <v>0.5437013343253334</v>
       </c>
       <c r="R4">
-        <v>4.404550277399999</v>
+        <v>4.893312008928</v>
       </c>
       <c r="S4">
-        <v>0.07319212075274306</v>
+        <v>0.1175987861993133</v>
       </c>
       <c r="T4">
-        <v>0.08561188213324282</v>
+        <v>0.1291752417798355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H5">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I5">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J5">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>1.458175124436333</v>
+        <v>0.5403022447044999</v>
       </c>
       <c r="R5">
-        <v>8.749050746618</v>
+        <v>3.241813468227</v>
       </c>
       <c r="S5">
-        <v>0.2180795558189245</v>
+        <v>0.1168635869486278</v>
       </c>
       <c r="T5">
-        <v>0.1700565674412888</v>
+        <v>0.08557844621379249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H6">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I6">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J6">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.5022651919638889</v>
+        <v>0.6978872271306665</v>
       </c>
       <c r="R6">
-        <v>4.520386727675</v>
+        <v>6.280985044175999</v>
       </c>
       <c r="S6">
-        <v>0.07511701998697357</v>
+        <v>0.1509481136668728</v>
       </c>
       <c r="T6">
-        <v>0.08786341200646533</v>
+        <v>0.1658074858534743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H7">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I7">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J7">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>0.6373729824016666</v>
+        <v>0.2551094248744444</v>
       </c>
       <c r="R7">
-        <v>5.736356841615</v>
+        <v>2.29598482387</v>
       </c>
       <c r="S7">
-        <v>0.09532326711914604</v>
+        <v>0.05517837978173546</v>
       </c>
       <c r="T7">
-        <v>0.111498399352694</v>
+        <v>0.06061015406438681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H8">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I8">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J8">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
         <v>0.08448713141499999</v>
       </c>
       <c r="R8">
-        <v>0.760384182735</v>
+        <v>0.7603841827349999</v>
       </c>
       <c r="S8">
-        <v>0.01263559896382169</v>
+        <v>0.01827397410417377</v>
       </c>
       <c r="T8">
-        <v>0.01477969756919615</v>
+        <v>0.02007286894257829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,13 +977,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H9">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I9">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J9">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>0.1924926676666666</v>
+        <v>0.2330104932088889</v>
       </c>
       <c r="R9">
-        <v>1.732434009</v>
+        <v>2.09709443888</v>
       </c>
       <c r="S9">
-        <v>0.02878852804417003</v>
+        <v>0.05039853581943269</v>
       </c>
       <c r="T9">
-        <v>0.03367357093030633</v>
+        <v>0.05535978099970333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H10">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I10">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J10">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>0.5735414554383333</v>
+        <v>0.2315537677991667</v>
       </c>
       <c r="R10">
-        <v>3.44124873263</v>
+        <v>1.389322606795</v>
       </c>
       <c r="S10">
-        <v>0.08577684788998217</v>
+        <v>0.05008345632781878</v>
       </c>
       <c r="T10">
-        <v>0.06688805038751873</v>
+        <v>0.03667578999979849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,13 +1101,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H11">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I11">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J11">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>0.1975550840138889</v>
+        <v>0.2990889238844444</v>
       </c>
       <c r="R11">
-        <v>1.777995756125</v>
+        <v>2.69180031496</v>
       </c>
       <c r="S11">
-        <v>0.02954564527232152</v>
+        <v>0.06469083703484783</v>
       </c>
       <c r="T11">
-        <v>0.0345591612128522</v>
+        <v>0.07105902012248153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H12">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I12">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J12">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N12">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O12">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P12">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q12">
-        <v>0.2707228693775</v>
+        <v>0.1509166239515556</v>
       </c>
       <c r="R12">
-        <v>1.624337216265</v>
+        <v>1.358249615564</v>
       </c>
       <c r="S12">
-        <v>0.04048836255294908</v>
+        <v>0.03264220753848941</v>
       </c>
       <c r="T12">
-        <v>0.03157247790246757</v>
+        <v>0.03585551507194519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H13">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I13">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J13">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P13">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q13">
-        <v>0.0358857360975</v>
+        <v>0.049980562838</v>
       </c>
       <c r="R13">
-        <v>0.215314416585</v>
+        <v>0.449825065542</v>
       </c>
       <c r="S13">
-        <v>0.005366944790944169</v>
+        <v>0.01081044527985342</v>
       </c>
       <c r="T13">
-        <v>0.004185097522633846</v>
+        <v>0.01187462836908857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H14">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I14">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J14">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N14">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O14">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P14">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q14">
-        <v>0.08176086649999999</v>
+        <v>0.1378434254151111</v>
       </c>
       <c r="R14">
-        <v>0.490565199</v>
+        <v>1.240590828736</v>
       </c>
       <c r="S14">
-        <v>0.01222786834783155</v>
+        <v>0.02981456636387978</v>
       </c>
       <c r="T14">
-        <v>0.009535186875026498</v>
+        <v>0.03274952015310521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H15">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I15">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J15">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N15">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O15">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P15">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q15">
-        <v>0.2436105589825</v>
+        <v>0.1369816615623334</v>
       </c>
       <c r="R15">
-        <v>0.97444223593</v>
+        <v>0.8218899693740001</v>
       </c>
       <c r="S15">
-        <v>0.03643354052980425</v>
+        <v>0.02962817288518276</v>
       </c>
       <c r="T15">
-        <v>0.01894037497452242</v>
+        <v>0.02169651870074941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,49 +1405,359 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1864953333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.559486</v>
+      </c>
+      <c r="I16">
+        <v>0.1411649414213912</v>
+      </c>
+      <c r="J16">
+        <v>0.1442129961972698</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9487306666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.846192</v>
+      </c>
+      <c r="O16">
+        <v>0.2710981137997109</v>
+      </c>
+      <c r="P16">
+        <v>0.2914911624530634</v>
+      </c>
+      <c r="Q16">
+        <v>0.1769338419235555</v>
+      </c>
+      <c r="R16">
+        <v>1.592404577312</v>
+      </c>
+      <c r="S16">
+        <v>0.03826954935398585</v>
+      </c>
+      <c r="T16">
+        <v>0.04203681390238138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.5</v>
       </c>
-      <c r="G16">
-        <v>0.1339025</v>
-      </c>
-      <c r="H16">
-        <v>0.267805</v>
-      </c>
-      <c r="I16">
-        <v>0.1070661685619672</v>
-      </c>
-      <c r="J16">
-        <v>0.07401909258930148</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6266583333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.879975</v>
-      </c>
-      <c r="O16">
-        <v>0.1172121175997333</v>
-      </c>
-      <c r="P16">
-        <v>0.1322085285339687</v>
-      </c>
-      <c r="Q16">
-        <v>0.08391111747916667</v>
-      </c>
-      <c r="R16">
-        <v>0.503466704875</v>
-      </c>
-      <c r="S16">
-        <v>0.01254945234043817</v>
-      </c>
-      <c r="T16">
-        <v>0.009785955314651132</v>
+      <c r="G17">
+        <v>0.0837685</v>
+      </c>
+      <c r="H17">
+        <v>0.167537</v>
+      </c>
+      <c r="I17">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J17">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8092246666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.427674</v>
+      </c>
+      <c r="O17">
+        <v>0.2312345204823145</v>
+      </c>
+      <c r="P17">
+        <v>0.2486288754648592</v>
+      </c>
+      <c r="Q17">
+        <v>0.06778753648966666</v>
+      </c>
+      <c r="R17">
+        <v>0.406725218938</v>
+      </c>
+      <c r="S17">
+        <v>0.01466196881881557</v>
+      </c>
+      <c r="T17">
+        <v>0.01073686460181038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0837685</v>
+      </c>
+      <c r="H18">
+        <v>0.167537</v>
+      </c>
+      <c r="I18">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J18">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.267999</v>
+      </c>
+      <c r="N18">
+        <v>0.803997</v>
+      </c>
+      <c r="O18">
+        <v>0.0765802413191472</v>
+      </c>
+      <c r="P18">
+        <v>0.08234090326259635</v>
+      </c>
+      <c r="Q18">
+        <v>0.0224498742315</v>
+      </c>
+      <c r="R18">
+        <v>0.134699245389</v>
+      </c>
+      <c r="S18">
+        <v>0.004855750378519217</v>
+      </c>
+      <c r="T18">
+        <v>0.003555834485710082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0837685</v>
+      </c>
+      <c r="H19">
+        <v>0.167537</v>
+      </c>
+      <c r="I19">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J19">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7391253333333334</v>
+      </c>
+      <c r="N19">
+        <v>2.217376</v>
+      </c>
+      <c r="O19">
+        <v>0.2112037596847816</v>
+      </c>
+      <c r="P19">
+        <v>0.2270913233666331</v>
+      </c>
+      <c r="Q19">
+        <v>0.06191542048533333</v>
+      </c>
+      <c r="R19">
+        <v>0.371492522912</v>
+      </c>
+      <c r="S19">
+        <v>0.01339187130215589</v>
+      </c>
+      <c r="T19">
+        <v>0.009806780433989032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0837685</v>
+      </c>
+      <c r="H20">
+        <v>0.167537</v>
+      </c>
+      <c r="I20">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J20">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7345045</v>
+      </c>
+      <c r="N20">
+        <v>1.469009</v>
+      </c>
+      <c r="O20">
+        <v>0.2098833647140458</v>
+      </c>
+      <c r="P20">
+        <v>0.150447735452848</v>
+      </c>
+      <c r="Q20">
+        <v>0.06152834020824999</v>
+      </c>
+      <c r="R20">
+        <v>0.246113360833</v>
+      </c>
+      <c r="S20">
+        <v>0.01330814855241649</v>
+      </c>
+      <c r="T20">
+        <v>0.006496980538507584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0837685</v>
+      </c>
+      <c r="H21">
+        <v>0.167537</v>
+      </c>
+      <c r="I21">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J21">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9487306666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.846192</v>
+      </c>
+      <c r="O21">
+        <v>0.2710981137997109</v>
+      </c>
+      <c r="P21">
+        <v>0.2914911624530634</v>
+      </c>
+      <c r="Q21">
+        <v>0.07947374485066666</v>
+      </c>
+      <c r="R21">
+        <v>0.476842469104</v>
+      </c>
+      <c r="S21">
+        <v>0.01718961374400448</v>
+      </c>
+      <c r="T21">
+        <v>0.01258784257472621</v>
       </c>
     </row>
   </sheetData>
